--- a/Framwwork/TestData/Data.xlsx
+++ b/Framwwork/TestData/Data.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KSTL\workspace\Framwwork\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A1DD9C-E752-4446-B874-0F4EA73AAA63}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12735" windowHeight="2190"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Narendra</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>susmitha</t>
   </si>
@@ -36,7 +28,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -347,11 +339,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -361,11 +353,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
+      <c r="A1">
+        <v>8008043049</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
